--- a/data/raw-population-indicator-data/Columbia_2012_Wiens_SteelheadSpawnerEnumerationInkaneepCreek2011_SSdata.xlsx
+++ b/data/raw-population-indicator-data/Columbia_2012_Wiens_SteelheadSpawnerEnumerationInkaneepCreek2011_SSdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CCEA8-137D-44DD-AF55-3F08AB5AC989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091B2107-969D-4A2F-9713-0FFF0297B575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -483,7 +483,7 @@
         <v>1380</v>
       </c>
       <c r="D2">
-        <v>10128</v>
+        <v>10194</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -525,7 +525,7 @@
         <v>1380</v>
       </c>
       <c r="D3">
-        <v>10128</v>
+        <v>10194</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -567,7 +567,7 @@
         <v>1380</v>
       </c>
       <c r="D4">
-        <v>10128</v>
+        <v>10194</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -609,7 +609,7 @@
         <v>1380</v>
       </c>
       <c r="D5">
-        <v>10128</v>
+        <v>10194</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -651,7 +651,7 @@
         <v>1380</v>
       </c>
       <c r="D6">
-        <v>10128</v>
+        <v>10194</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
